--- a/판매량(계획_실적).xlsx
+++ b/판매량(계획_실적).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3757BB85-AC70-4286-ABBE-CDA43568B3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF15E5-262C-4C00-9A90-41A9F7FE5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="계획_부피" sheetId="1" r:id="rId1"/>
@@ -15126,7 +15126,7 @@
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:T1048576"/>
+      <selection pane="bottomRight" activeCell="D108" sqref="D108:R108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21796,6 +21796,51 @@
       <c r="C108" s="11">
         <v>11</v>
       </c>
+      <c r="D108" s="15">
+        <v>468.5636695</v>
+      </c>
+      <c r="E108" s="15">
+        <v>25544.613372999996</v>
+      </c>
+      <c r="F108" s="15">
+        <v>1208.3132226</v>
+      </c>
+      <c r="G108" s="15">
+        <v>702.34699999999998</v>
+      </c>
+      <c r="H108" s="15">
+        <v>27923.837265099999</v>
+      </c>
+      <c r="I108" s="15">
+        <v>7003.5037753999986</v>
+      </c>
+      <c r="J108" s="15">
+        <v>693.24587239999994</v>
+      </c>
+      <c r="K108" s="15">
+        <v>1012.9073966000001</v>
+      </c>
+      <c r="L108" s="15">
+        <v>19624.839062799998</v>
+      </c>
+      <c r="M108" s="15">
+        <v>5789</v>
+      </c>
+      <c r="N108" s="15">
+        <v>286</v>
+      </c>
+      <c r="O108" s="15">
+        <v>482.18700000000001</v>
+      </c>
+      <c r="P108" s="15">
+        <v>402.2449762</v>
+      </c>
+      <c r="Q108" s="15">
+        <v>423.62599999999998</v>
+      </c>
+      <c r="R108" s="15">
+        <v>126.34784699999999</v>
+      </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
@@ -22084,11 +22129,11 @@
   <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28757,6 +28802,51 @@
       <c r="C108" s="11">
         <v>11</v>
       </c>
+      <c r="D108" s="15">
+        <v>19971</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1087237</v>
+      </c>
+      <c r="F108" s="15">
+        <v>51429</v>
+      </c>
+      <c r="G108" s="15">
+        <v>29886</v>
+      </c>
+      <c r="H108" s="15">
+        <v>1188523</v>
+      </c>
+      <c r="I108" s="15">
+        <v>298173</v>
+      </c>
+      <c r="J108" s="15">
+        <v>29474</v>
+      </c>
+      <c r="K108" s="15">
+        <v>43124</v>
+      </c>
+      <c r="L108" s="15">
+        <v>835371</v>
+      </c>
+      <c r="M108" s="15">
+        <v>250148</v>
+      </c>
+      <c r="N108" s="15">
+        <v>12117</v>
+      </c>
+      <c r="O108" s="15">
+        <v>20517</v>
+      </c>
+      <c r="P108" s="15">
+        <v>17118</v>
+      </c>
+      <c r="Q108" s="15">
+        <v>18025</v>
+      </c>
+      <c r="R108" s="15">
+        <v>5376</v>
+      </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="13">

--- a/판매량(계획_실적).xlsx
+++ b/판매량(계획_실적).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF15E5-262C-4C00-9A90-41A9F7FE5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AE621B-E2DC-47E6-9396-424B680F147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="계획_부피" sheetId="1" r:id="rId1"/>
@@ -562,12 +562,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B74BD5-F80A-4C0C-83D2-EB6FF9520542}">
   <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15122,11 +15122,11 @@
   <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="D108" sqref="D108:R108"/>
+      <selection pane="bottomRight" activeCell="D109" sqref="D109:R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21852,6 +21852,51 @@
       <c r="C109" s="12">
         <v>12</v>
       </c>
+      <c r="D109" s="15">
+        <v>470.04897099999999</v>
+      </c>
+      <c r="E109" s="15">
+        <v>60677.873629499998</v>
+      </c>
+      <c r="F109" s="15">
+        <v>1969.9646034000002</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1375.6859999999999</v>
+      </c>
+      <c r="H109" s="15">
+        <v>64493.573203899999</v>
+      </c>
+      <c r="I109" s="15">
+        <v>7717.6021912999995</v>
+      </c>
+      <c r="J109" s="15">
+        <v>1983.9094749999999</v>
+      </c>
+      <c r="K109" s="15">
+        <v>2462.297352</v>
+      </c>
+      <c r="L109" s="15">
+        <v>18947.582368799998</v>
+      </c>
+      <c r="M109" s="15">
+        <v>6123</v>
+      </c>
+      <c r="N109" s="15">
+        <v>229</v>
+      </c>
+      <c r="O109" s="15">
+        <v>623.88199999999995</v>
+      </c>
+      <c r="P109" s="15">
+        <v>439.73627120000003</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>316.041</v>
+      </c>
+      <c r="R109" s="15">
+        <v>227.72240160000001</v>
+      </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
@@ -22128,12 +22173,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15716FD-0F91-490F-AD82-2D47BBFCBF61}">
   <dimension ref="A1:AE133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
+      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28858,6 +28903,51 @@
       <c r="C109" s="12">
         <v>12</v>
       </c>
+      <c r="D109" s="15">
+        <v>20006</v>
+      </c>
+      <c r="E109" s="15">
+        <v>2582362</v>
+      </c>
+      <c r="F109" s="15">
+        <v>83838</v>
+      </c>
+      <c r="G109" s="15">
+        <v>58539</v>
+      </c>
+      <c r="H109" s="15">
+        <v>2744745</v>
+      </c>
+      <c r="I109" s="15">
+        <v>328476</v>
+      </c>
+      <c r="J109" s="15">
+        <v>84443</v>
+      </c>
+      <c r="K109" s="15">
+        <v>104817</v>
+      </c>
+      <c r="L109" s="15">
+        <v>806333</v>
+      </c>
+      <c r="M109" s="15">
+        <v>264561</v>
+      </c>
+      <c r="N109" s="15">
+        <v>9690</v>
+      </c>
+      <c r="O109" s="15">
+        <v>26548</v>
+      </c>
+      <c r="P109" s="15">
+        <v>18712</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>13448</v>
+      </c>
+      <c r="R109" s="15">
+        <v>9690</v>
+      </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="10">

--- a/판매량(계획_실적).xlsx
+++ b/판매량(계획_실적).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AE621B-E2DC-47E6-9396-424B680F147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FD398-0D8F-4FFC-B1A6-798B0CED0391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="계획_부피" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B74BD5-F80A-4C0C-83D2-EB6FF9520542}">
   <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
@@ -15122,7 +15122,7 @@
   <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
@@ -21856,7 +21856,7 @@
         <v>470.04897099999999</v>
       </c>
       <c r="E109" s="15">
-        <v>60677.873629499998</v>
+        <v>60681.778294000003</v>
       </c>
       <c r="F109" s="15">
         <v>1969.9646034000002</v>
@@ -21865,7 +21865,7 @@
         <v>1375.6859999999999</v>
       </c>
       <c r="H109" s="15">
-        <v>64493.573203899999</v>
+        <v>64497.477868400005</v>
       </c>
       <c r="I109" s="15">
         <v>7717.6021912999995</v>
@@ -22173,12 +22173,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15716FD-0F91-490F-AD82-2D47BBFCBF61}">
   <dimension ref="A1:AE133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
+      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28907,7 +28907,7 @@
         <v>20006</v>
       </c>
       <c r="E109" s="15">
-        <v>2582362</v>
+        <v>2582529</v>
       </c>
       <c r="F109" s="15">
         <v>83838</v>
@@ -28916,7 +28916,7 @@
         <v>58539</v>
       </c>
       <c r="H109" s="15">
-        <v>2744745</v>
+        <v>2744912</v>
       </c>
       <c r="I109" s="15">
         <v>328476</v>

--- a/판매량(계획_실적).xlsx
+++ b/판매량(계획_실적).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FD398-0D8F-4FFC-B1A6-798B0CED0391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB2586-92E4-41DA-80B7-5430DE15647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="계획_부피" sheetId="1" r:id="rId1"/>
@@ -15121,12 +15121,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EB74FA-BF66-48F6-9C03-5DFDBC55B29E}">
   <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="D109" sqref="D109:R109"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22173,12 +22173,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15716FD-0F91-490F-AD82-2D47BBFCBF61}">
   <dimension ref="A1:AE133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50:T109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/판매량(계획_실적).xlsx
+++ b/판매량(계획_실적).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB2586-92E4-41DA-80B7-5430DE15647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC1490-27EE-4A4E-B2C2-545ECA8A8047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-28920" yWindow="585" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="계획_부피" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>취사용</t>
   </si>
@@ -15119,14 +15119,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EB74FA-BF66-48F6-9C03-5DFDBC55B29E}">
-  <dimension ref="A1:AF133"/>
+  <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15138,21 +15138,20 @@
     <col min="5" max="7" width="11.875" style="15" customWidth="1"/>
     <col min="8" max="15" width="18.625" style="15" customWidth="1"/>
     <col min="16" max="18" width="11.875" style="15" customWidth="1"/>
-    <col min="19" max="20" width="10.75" style="15" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2"/>
-    <col min="23" max="24" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="2"/>
+    <col min="21" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>5</v>
@@ -15205,16 +15204,10 @@
       <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="3"/>
-      <c r="AF1" s="2"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB1" s="3"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>42736</v>
       </c>
@@ -15269,16 +15262,10 @@
       <c r="R2" s="14">
         <v>156</v>
       </c>
-      <c r="S2" s="14">
-        <v>1191</v>
-      </c>
-      <c r="T2" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="3"/>
-      <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB2" s="3"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>42767</v>
       </c>
@@ -15333,16 +15320,10 @@
       <c r="R3" s="14">
         <v>154</v>
       </c>
-      <c r="S3" s="14">
-        <v>827</v>
-      </c>
-      <c r="T3" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="3"/>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB3" s="3"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>42795</v>
       </c>
@@ -15397,16 +15378,10 @@
       <c r="R4" s="14">
         <v>129</v>
       </c>
-      <c r="S4" s="14">
-        <v>990</v>
-      </c>
-      <c r="T4" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="3"/>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB4" s="3"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>42826</v>
       </c>
@@ -15461,16 +15436,10 @@
       <c r="R5" s="14">
         <v>44</v>
       </c>
-      <c r="S5" s="14">
-        <v>748</v>
-      </c>
-      <c r="T5" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="3"/>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB5" s="3"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>42856</v>
       </c>
@@ -15525,16 +15494,10 @@
       <c r="R6" s="14">
         <v>25</v>
       </c>
-      <c r="S6" s="14">
-        <v>685</v>
-      </c>
-      <c r="T6" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="3"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB6" s="3"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>42887</v>
       </c>
@@ -15589,16 +15552,10 @@
       <c r="R7" s="14">
         <v>18</v>
       </c>
-      <c r="S7" s="14">
-        <v>595</v>
-      </c>
-      <c r="T7" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="3"/>
-      <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB7" s="3"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>42917</v>
       </c>
@@ -15653,16 +15610,10 @@
       <c r="R8" s="14">
         <v>16</v>
       </c>
-      <c r="S8" s="14">
-        <v>601</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3"/>
-      <c r="AF8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB8" s="3"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>42948</v>
       </c>
@@ -15717,16 +15668,10 @@
       <c r="R9" s="14">
         <v>23</v>
       </c>
-      <c r="S9" s="14">
-        <v>590</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3"/>
-      <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB9" s="3"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>42979</v>
       </c>
@@ -15781,16 +15726,10 @@
       <c r="R10" s="14">
         <v>22</v>
       </c>
-      <c r="S10" s="14">
-        <v>552</v>
-      </c>
-      <c r="T10" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD10" s="3"/>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB10" s="3"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>43009</v>
       </c>
@@ -15845,16 +15784,10 @@
       <c r="R11" s="14">
         <v>34</v>
       </c>
-      <c r="S11" s="14">
-        <v>622</v>
-      </c>
-      <c r="T11" s="14">
-        <v>22</v>
-      </c>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43040</v>
       </c>
@@ -15909,16 +15842,10 @@
       <c r="R12" s="14">
         <v>118</v>
       </c>
-      <c r="S12" s="14">
-        <v>765</v>
-      </c>
-      <c r="T12" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="3"/>
-      <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>43070</v>
       </c>
@@ -15973,16 +15900,10 @@
       <c r="R13" s="14">
         <v>217</v>
       </c>
-      <c r="S13" s="14">
-        <v>975</v>
-      </c>
-      <c r="T13" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="3"/>
-      <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43101</v>
       </c>
@@ -16037,16 +15958,10 @@
       <c r="R14" s="14">
         <v>272</v>
       </c>
-      <c r="S14" s="14">
-        <v>970</v>
-      </c>
-      <c r="T14" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="3"/>
-      <c r="AF14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>43132</v>
       </c>
@@ -16101,16 +16016,10 @@
       <c r="R15" s="14">
         <v>217</v>
       </c>
-      <c r="S15" s="14">
-        <v>864</v>
-      </c>
-      <c r="T15" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="3"/>
-      <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43160</v>
       </c>
@@ -16165,16 +16074,10 @@
       <c r="R16" s="14">
         <v>149</v>
       </c>
-      <c r="S16" s="14">
-        <v>796</v>
-      </c>
-      <c r="T16" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="3"/>
-      <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43191</v>
       </c>
@@ -16229,16 +16132,10 @@
       <c r="R17" s="14">
         <v>70</v>
       </c>
-      <c r="S17" s="14">
-        <v>741</v>
-      </c>
-      <c r="T17" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD17" s="3"/>
-      <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43221</v>
       </c>
@@ -16293,16 +16190,10 @@
       <c r="R18" s="14">
         <v>41</v>
       </c>
-      <c r="S18" s="14">
-        <v>734</v>
-      </c>
-      <c r="T18" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="3"/>
-      <c r="AF18" s="2"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43252</v>
       </c>
@@ -16357,16 +16248,10 @@
       <c r="R19" s="14">
         <v>31</v>
       </c>
-      <c r="S19" s="14">
-        <v>591</v>
-      </c>
-      <c r="T19" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="3"/>
-      <c r="AF19" s="2"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43282</v>
       </c>
@@ -16421,16 +16306,10 @@
       <c r="R20" s="14">
         <v>25</v>
       </c>
-      <c r="S20" s="14">
-        <v>591</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="3"/>
-      <c r="AF20" s="2"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>43313</v>
       </c>
@@ -16485,16 +16364,10 @@
       <c r="R21" s="14">
         <v>26</v>
       </c>
-      <c r="S21" s="14">
-        <v>529</v>
-      </c>
-      <c r="T21" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="3"/>
-      <c r="AF21" s="2"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43344</v>
       </c>
@@ -16549,16 +16422,10 @@
       <c r="R22" s="14">
         <v>31</v>
       </c>
-      <c r="S22" s="14">
-        <v>598</v>
-      </c>
-      <c r="T22" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD22" s="3"/>
-      <c r="AF22" s="2"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB22" s="3"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43374</v>
       </c>
@@ -16613,16 +16480,10 @@
       <c r="R23" s="14">
         <v>61</v>
       </c>
-      <c r="S23" s="14">
-        <v>686</v>
-      </c>
-      <c r="T23" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="3"/>
-      <c r="AF23" s="2"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB23" s="3"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43405</v>
       </c>
@@ -16677,16 +16538,10 @@
       <c r="R24" s="14">
         <v>166</v>
       </c>
-      <c r="S24" s="14">
-        <v>783</v>
-      </c>
-      <c r="T24" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="3"/>
-      <c r="AF24" s="2"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB24" s="3"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43435</v>
       </c>
@@ -16741,16 +16596,10 @@
       <c r="R25" s="14">
         <v>272</v>
       </c>
-      <c r="S25" s="14">
-        <v>904</v>
-      </c>
-      <c r="T25" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD25" s="3"/>
-      <c r="AF25" s="2"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43466</v>
       </c>
@@ -16805,16 +16654,10 @@
       <c r="R26" s="14">
         <v>298</v>
       </c>
-      <c r="S26" s="14">
-        <v>905</v>
-      </c>
-      <c r="T26" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD26" s="3"/>
-      <c r="AF26" s="2"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>43497</v>
       </c>
@@ -16869,16 +16712,10 @@
       <c r="R27" s="14">
         <v>237</v>
       </c>
-      <c r="S27" s="14">
-        <v>799</v>
-      </c>
-      <c r="T27" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD27" s="3"/>
-      <c r="AF27" s="2"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43525</v>
       </c>
@@ -16933,16 +16770,10 @@
       <c r="R28" s="14">
         <v>169</v>
       </c>
-      <c r="S28" s="14">
-        <v>784</v>
-      </c>
-      <c r="T28" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="3"/>
-      <c r="AF28" s="2"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>43556</v>
       </c>
@@ -16997,16 +16828,10 @@
       <c r="R29" s="14">
         <v>119</v>
       </c>
-      <c r="S29" s="14">
-        <v>808</v>
-      </c>
-      <c r="T29" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="3"/>
-      <c r="AF29" s="2"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43586</v>
       </c>
@@ -17061,16 +16886,10 @@
       <c r="R30" s="14">
         <v>46</v>
       </c>
-      <c r="S30" s="14">
-        <v>705</v>
-      </c>
-      <c r="T30" s="14">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="3"/>
-      <c r="AF30" s="2"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43617</v>
       </c>
@@ -17125,16 +16944,10 @@
       <c r="R31" s="14">
         <v>38</v>
       </c>
-      <c r="S31" s="14">
-        <v>580</v>
-      </c>
-      <c r="T31" s="14">
-        <v>7</v>
-      </c>
-      <c r="AD31" s="3"/>
-      <c r="AF31" s="2"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB31" s="3"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43647</v>
       </c>
@@ -17189,16 +17002,10 @@
       <c r="R32" s="14">
         <v>46</v>
       </c>
-      <c r="S32" s="14">
-        <v>592</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3"/>
-      <c r="AF32" s="2"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB32" s="3"/>
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>43678</v>
       </c>
@@ -17253,16 +17060,10 @@
       <c r="R33" s="14">
         <v>26</v>
       </c>
-      <c r="S33" s="14">
-        <v>608</v>
-      </c>
-      <c r="T33" s="14">
-        <v>38</v>
-      </c>
-      <c r="AD33" s="3"/>
-      <c r="AF33" s="2"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB33" s="3"/>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43709</v>
       </c>
@@ -17317,16 +17118,10 @@
       <c r="R34" s="14">
         <v>32</v>
       </c>
-      <c r="S34" s="14">
-        <v>594</v>
-      </c>
-      <c r="T34" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD34" s="3"/>
-      <c r="AF34" s="2"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB34" s="3"/>
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>43739</v>
       </c>
@@ -17381,16 +17176,10 @@
       <c r="R35" s="14">
         <v>49</v>
       </c>
-      <c r="S35" s="14">
-        <v>648</v>
-      </c>
-      <c r="T35" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD35" s="3"/>
-      <c r="AF35" s="2"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB35" s="3"/>
+      <c r="AD35" s="2"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43770</v>
       </c>
@@ -17445,16 +17234,10 @@
       <c r="R36" s="14">
         <v>131</v>
       </c>
-      <c r="S36" s="14">
-        <v>722</v>
-      </c>
-      <c r="T36" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD36" s="3"/>
-      <c r="AF36" s="2"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB36" s="3"/>
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>43800</v>
       </c>
@@ -17509,16 +17292,10 @@
       <c r="R37" s="14">
         <v>250</v>
       </c>
-      <c r="S37" s="14">
-        <v>804</v>
-      </c>
-      <c r="T37" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD37" s="3"/>
-      <c r="AF37" s="2"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="2"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43831</v>
       </c>
@@ -17573,16 +17350,10 @@
       <c r="R38" s="14">
         <v>294</v>
       </c>
-      <c r="S38" s="14">
-        <v>880</v>
-      </c>
-      <c r="T38" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD38" s="3"/>
-      <c r="AF38" s="2"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB38" s="3"/>
+      <c r="AD38" s="2"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>43862</v>
       </c>
@@ -17637,16 +17408,10 @@
       <c r="R39" s="14">
         <v>234</v>
       </c>
-      <c r="S39" s="14">
-        <v>848</v>
-      </c>
-      <c r="T39" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD39" s="3"/>
-      <c r="AF39" s="2"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB39" s="3"/>
+      <c r="AD39" s="2"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43891</v>
       </c>
@@ -17701,16 +17466,10 @@
       <c r="R40" s="14">
         <v>205</v>
       </c>
-      <c r="S40" s="14">
-        <v>819</v>
-      </c>
-      <c r="T40" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD40" s="3"/>
-      <c r="AF40" s="2"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB40" s="3"/>
+      <c r="AD40" s="2"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>43922</v>
       </c>
@@ -17765,16 +17524,10 @@
       <c r="R41" s="14">
         <v>145</v>
       </c>
-      <c r="S41" s="14">
-        <v>792</v>
-      </c>
-      <c r="T41" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD41" s="3"/>
-      <c r="AF41" s="2"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB41" s="3"/>
+      <c r="AD41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43952</v>
       </c>
@@ -17829,16 +17582,10 @@
       <c r="R42" s="14">
         <v>53</v>
       </c>
-      <c r="S42" s="14">
-        <v>681</v>
-      </c>
-      <c r="T42" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD42" s="3"/>
-      <c r="AF42" s="2"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB42" s="3"/>
+      <c r="AD42" s="2"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>43983</v>
       </c>
@@ -17893,16 +17640,10 @@
       <c r="R43" s="14">
         <v>38</v>
       </c>
-      <c r="S43" s="14">
-        <v>595</v>
-      </c>
-      <c r="T43" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD43" s="3"/>
-      <c r="AF43" s="2"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="2"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>44013</v>
       </c>
@@ -17957,16 +17698,10 @@
       <c r="R44" s="14">
         <v>36</v>
       </c>
-      <c r="S44" s="14">
-        <v>587</v>
-      </c>
-      <c r="T44" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD44" s="3"/>
-      <c r="AF44" s="2"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB44" s="3"/>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44044</v>
       </c>
@@ -18021,16 +17756,10 @@
       <c r="R45" s="14">
         <v>31</v>
       </c>
-      <c r="S45" s="14">
-        <v>689</v>
-      </c>
-      <c r="T45" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="3"/>
-      <c r="AF45" s="2"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="2"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>44075</v>
       </c>
@@ -18085,16 +17814,10 @@
       <c r="R46" s="14">
         <v>36</v>
       </c>
-      <c r="S46" s="14">
-        <v>693</v>
-      </c>
-      <c r="T46" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD46" s="3"/>
-      <c r="AF46" s="2"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB46" s="3"/>
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44105</v>
       </c>
@@ -18149,16 +17872,10 @@
       <c r="R47" s="14">
         <v>69</v>
       </c>
-      <c r="S47" s="14">
-        <v>703</v>
-      </c>
-      <c r="T47" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD47" s="3"/>
-      <c r="AF47" s="2"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB47" s="3"/>
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>44136</v>
       </c>
@@ -18213,16 +17930,10 @@
       <c r="R48" s="14">
         <v>138</v>
       </c>
-      <c r="S48" s="14">
-        <v>736</v>
-      </c>
-      <c r="T48" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD48" s="3"/>
-      <c r="AF48" s="2"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB48" s="3"/>
+      <c r="AD48" s="2"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>44166</v>
       </c>
@@ -18277,16 +17988,10 @@
       <c r="R49" s="14">
         <v>286</v>
       </c>
-      <c r="S49" s="14">
-        <v>792</v>
-      </c>
-      <c r="T49" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD49" s="3"/>
-      <c r="AF49" s="2"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB49" s="3"/>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>44197</v>
       </c>
@@ -18341,16 +18046,10 @@
       <c r="R50" s="14">
         <v>304</v>
       </c>
-      <c r="S50" s="14">
-        <v>843</v>
-      </c>
-      <c r="T50" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD50" s="3"/>
-      <c r="AF50" s="2"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB50" s="3"/>
+      <c r="AD50" s="2"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>44228</v>
       </c>
@@ -18405,16 +18104,10 @@
       <c r="R51" s="14">
         <v>252</v>
       </c>
-      <c r="S51" s="14">
-        <v>743</v>
-      </c>
-      <c r="T51" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD51" s="3"/>
-      <c r="AF51" s="2"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB51" s="3"/>
+      <c r="AD51" s="2"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>44256</v>
       </c>
@@ -18469,16 +18162,10 @@
       <c r="R52" s="14">
         <v>206</v>
       </c>
-      <c r="S52" s="14">
-        <v>754</v>
-      </c>
-      <c r="T52" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD52" s="3"/>
-      <c r="AF52" s="2"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB52" s="3"/>
+      <c r="AD52" s="2"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>44287</v>
       </c>
@@ -18533,16 +18220,10 @@
       <c r="R53" s="14">
         <v>55</v>
       </c>
-      <c r="S53" s="14">
-        <v>712</v>
-      </c>
-      <c r="T53" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD53" s="3"/>
-      <c r="AF53" s="2"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB53" s="3"/>
+      <c r="AD53" s="2"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>44317</v>
       </c>
@@ -18597,16 +18278,10 @@
       <c r="R54" s="14">
         <v>41</v>
       </c>
-      <c r="S54" s="14">
-        <v>586</v>
-      </c>
-      <c r="T54" s="14">
-        <v>32</v>
-      </c>
-      <c r="AD54" s="3"/>
-      <c r="AF54" s="2"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB54" s="3"/>
+      <c r="AD54" s="2"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>44348</v>
       </c>
@@ -18661,16 +18336,10 @@
       <c r="R55" s="14">
         <v>38</v>
       </c>
-      <c r="S55" s="14">
-        <v>496</v>
-      </c>
-      <c r="T55" s="14">
-        <v>32</v>
-      </c>
-      <c r="AD55" s="3"/>
-      <c r="AF55" s="2"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB55" s="3"/>
+      <c r="AD55" s="2"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>44378</v>
       </c>
@@ -18725,16 +18394,10 @@
       <c r="R56" s="14">
         <v>30</v>
       </c>
-      <c r="S56" s="14">
-        <v>520</v>
-      </c>
-      <c r="T56" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD56" s="3"/>
-      <c r="AF56" s="2"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB56" s="3"/>
+      <c r="AD56" s="2"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>44409</v>
       </c>
@@ -18789,16 +18452,10 @@
       <c r="R57" s="14">
         <v>33</v>
       </c>
-      <c r="S57" s="14">
-        <v>567</v>
-      </c>
-      <c r="T57" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD57" s="3"/>
-      <c r="AF57" s="2"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB57" s="3"/>
+      <c r="AD57" s="2"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>44440</v>
       </c>
@@ -18853,16 +18510,10 @@
       <c r="R58" s="14">
         <v>29</v>
       </c>
-      <c r="S58" s="14">
-        <v>542</v>
-      </c>
-      <c r="T58" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD58" s="3"/>
-      <c r="AF58" s="2"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB58" s="3"/>
+      <c r="AD58" s="2"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>44470</v>
       </c>
@@ -18917,16 +18568,10 @@
       <c r="R59" s="14">
         <v>63</v>
       </c>
-      <c r="S59" s="14">
-        <v>579</v>
-      </c>
-      <c r="T59" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="3"/>
-      <c r="AF59" s="2"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB59" s="3"/>
+      <c r="AD59" s="2"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>44501</v>
       </c>
@@ -18981,16 +18626,10 @@
       <c r="R60" s="14">
         <v>163</v>
       </c>
-      <c r="S60" s="14">
-        <v>570</v>
-      </c>
-      <c r="T60" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD60" s="3"/>
-      <c r="AF60" s="2"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB60" s="3"/>
+      <c r="AD60" s="2"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>44531</v>
       </c>
@@ -19045,16 +18684,10 @@
       <c r="R61" s="14">
         <v>284</v>
       </c>
-      <c r="S61" s="14">
-        <v>578</v>
-      </c>
-      <c r="T61" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD61" s="3"/>
-      <c r="AF61" s="2"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB61" s="3"/>
+      <c r="AD61" s="2"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>44562</v>
       </c>
@@ -19109,16 +18742,10 @@
       <c r="R62" s="14">
         <v>266</v>
       </c>
-      <c r="S62" s="14">
-        <v>630</v>
-      </c>
-      <c r="T62" s="14">
-        <v>29</v>
-      </c>
-      <c r="AD62" s="3"/>
-      <c r="AF62" s="2"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB62" s="3"/>
+      <c r="AD62" s="2"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>44593</v>
       </c>
@@ -19173,16 +18800,10 @@
       <c r="R63" s="14">
         <v>296</v>
       </c>
-      <c r="S63" s="14">
-        <v>590</v>
-      </c>
-      <c r="T63" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD63" s="3"/>
-      <c r="AF63" s="2"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB63" s="3"/>
+      <c r="AD63" s="2"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>44621</v>
       </c>
@@ -19237,16 +18858,10 @@
       <c r="R64" s="14">
         <v>184</v>
       </c>
-      <c r="S64" s="14">
-        <v>475</v>
-      </c>
-      <c r="T64" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD64" s="3"/>
-      <c r="AF64" s="2"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB64" s="3"/>
+      <c r="AD64" s="2"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>44652</v>
       </c>
@@ -19301,16 +18916,10 @@
       <c r="R65" s="14">
         <v>68</v>
       </c>
-      <c r="S65" s="14">
-        <v>487</v>
-      </c>
-      <c r="T65" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD65" s="3"/>
-      <c r="AF65" s="2"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB65" s="3"/>
+      <c r="AD65" s="2"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>44682</v>
       </c>
@@ -19365,16 +18974,10 @@
       <c r="R66" s="14">
         <v>43</v>
       </c>
-      <c r="S66" s="14">
-        <v>431</v>
-      </c>
-      <c r="T66" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD66" s="3"/>
-      <c r="AF66" s="2"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB66" s="3"/>
+      <c r="AD66" s="2"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>44713</v>
       </c>
@@ -19429,16 +19032,10 @@
       <c r="R67" s="14">
         <v>32</v>
       </c>
-      <c r="S67" s="14">
-        <v>377</v>
-      </c>
-      <c r="T67" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD67" s="3"/>
-      <c r="AF67" s="2"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB67" s="3"/>
+      <c r="AD67" s="2"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>44743</v>
       </c>
@@ -19493,16 +19090,10 @@
       <c r="R68" s="14">
         <v>27</v>
       </c>
-      <c r="S68" s="14">
-        <v>474</v>
-      </c>
-      <c r="T68" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="3"/>
-      <c r="AF68" s="2"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB68" s="3"/>
+      <c r="AD68" s="2"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>44774</v>
       </c>
@@ -19557,16 +19148,10 @@
       <c r="R69" s="14">
         <v>35</v>
       </c>
-      <c r="S69" s="14">
-        <v>463</v>
-      </c>
-      <c r="T69" s="14">
-        <v>16</v>
-      </c>
-      <c r="AD69" s="3"/>
-      <c r="AF69" s="2"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB69" s="3"/>
+      <c r="AD69" s="2"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>44805</v>
       </c>
@@ -19621,16 +19206,10 @@
       <c r="R70" s="14">
         <v>31</v>
       </c>
-      <c r="S70" s="14">
-        <v>311</v>
-      </c>
-      <c r="T70" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD70" s="3"/>
-      <c r="AF70" s="2"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB70" s="3"/>
+      <c r="AD70" s="2"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>44835</v>
       </c>
@@ -19685,16 +19264,10 @@
       <c r="R71" s="14">
         <v>55</v>
       </c>
-      <c r="S71" s="14">
-        <v>285</v>
-      </c>
-      <c r="T71" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD71" s="3"/>
-      <c r="AF71" s="2"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB71" s="3"/>
+      <c r="AD71" s="2"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>44866</v>
       </c>
@@ -19749,16 +19322,10 @@
       <c r="R72" s="14">
         <v>145</v>
       </c>
-      <c r="S72" s="14">
-        <v>175</v>
-      </c>
-      <c r="T72" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD72" s="3"/>
-      <c r="AF72" s="2"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB72" s="3"/>
+      <c r="AD72" s="2"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>44896</v>
       </c>
@@ -19813,16 +19380,10 @@
       <c r="R73" s="14">
         <v>276</v>
       </c>
-      <c r="S73" s="14">
-        <v>276</v>
-      </c>
-      <c r="T73" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD73" s="3"/>
-      <c r="AF73" s="2"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB73" s="3"/>
+      <c r="AD73" s="2"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -19877,12 +19438,10 @@
       <c r="R74" s="14">
         <v>290</v>
       </c>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="AD74" s="3"/>
-      <c r="AF74" s="2"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB74" s="3"/>
+      <c r="AD74" s="2"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>44958</v>
       </c>
@@ -19937,12 +19496,10 @@
       <c r="R75" s="14">
         <v>261</v>
       </c>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="AD75" s="3"/>
-      <c r="AF75" s="2"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB75" s="3"/>
+      <c r="AD75" s="2"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>44986</v>
       </c>
@@ -19997,12 +19554,10 @@
       <c r="R76" s="14">
         <v>121</v>
       </c>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="AD76" s="3"/>
-      <c r="AF76" s="2"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB76" s="3"/>
+      <c r="AD76" s="2"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>45017</v>
       </c>
@@ -20057,12 +19612,10 @@
       <c r="R77" s="14">
         <v>48</v>
       </c>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="AD77" s="3"/>
-      <c r="AF77" s="2"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB77" s="3"/>
+      <c r="AD77" s="2"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>45047</v>
       </c>
@@ -20117,12 +19670,10 @@
       <c r="R78" s="14">
         <v>37</v>
       </c>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="AD78" s="3"/>
-      <c r="AF78" s="2"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB78" s="3"/>
+      <c r="AD78" s="2"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>45078</v>
       </c>
@@ -20177,12 +19728,10 @@
       <c r="R79" s="14">
         <v>44</v>
       </c>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="AD79" s="3"/>
-      <c r="AF79" s="2"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB79" s="3"/>
+      <c r="AD79" s="2"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>45108</v>
       </c>
@@ -20237,12 +19786,10 @@
       <c r="R80" s="14">
         <v>45</v>
       </c>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="AD80" s="3"/>
-      <c r="AF80" s="2"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB80" s="3"/>
+      <c r="AD80" s="2"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>45139</v>
       </c>
@@ -20297,12 +19844,10 @@
       <c r="R81" s="14">
         <v>47</v>
       </c>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="AD81" s="3"/>
-      <c r="AF81" s="2"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB81" s="3"/>
+      <c r="AD81" s="2"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>45170</v>
       </c>
@@ -20357,12 +19902,10 @@
       <c r="R82" s="14">
         <v>26</v>
       </c>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="AD82" s="3"/>
-      <c r="AF82" s="2"/>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB82" s="3"/>
+      <c r="AD82" s="2"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>45200</v>
       </c>
@@ -20417,12 +19960,10 @@
       <c r="R83" s="14">
         <v>62</v>
       </c>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="AD83" s="3"/>
-      <c r="AF83" s="2"/>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB83" s="3"/>
+      <c r="AD83" s="2"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>45231</v>
       </c>
@@ -20477,12 +20018,10 @@
       <c r="R84" s="14">
         <v>168</v>
       </c>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="AD84" s="3"/>
-      <c r="AF84" s="2"/>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB84" s="3"/>
+      <c r="AD84" s="2"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>45261</v>
       </c>
@@ -20537,12 +20076,10 @@
       <c r="R85" s="14">
         <v>256</v>
       </c>
-      <c r="S85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="AD85" s="3"/>
-      <c r="AF85" s="2"/>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB85" s="3"/>
+      <c r="AD85" s="2"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>45292</v>
       </c>
@@ -20597,10 +20134,10 @@
       <c r="R86" s="15">
         <v>289</v>
       </c>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="2"/>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="2"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>45323</v>
       </c>
@@ -20655,10 +20192,10 @@
       <c r="R87" s="15">
         <v>228</v>
       </c>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="2"/>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="2"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>45352</v>
       </c>
@@ -20713,10 +20250,10 @@
       <c r="R88" s="15">
         <v>201</v>
       </c>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="2"/>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="2"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>45383</v>
       </c>
@@ -20771,10 +20308,10 @@
       <c r="R89" s="15">
         <v>82</v>
       </c>
-      <c r="AE89" s="3"/>
-      <c r="AF89" s="2"/>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="2"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>45413</v>
       </c>
@@ -20829,10 +20366,10 @@
       <c r="R90" s="15">
         <v>95</v>
       </c>
-      <c r="AE90" s="3"/>
-      <c r="AF90" s="2"/>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="2"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>45444</v>
       </c>
@@ -20887,10 +20424,10 @@
       <c r="R91" s="15">
         <v>49</v>
       </c>
-      <c r="AE91" s="3"/>
-      <c r="AF91" s="2"/>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="2"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>45474</v>
       </c>
@@ -20946,7 +20483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>45505</v>
       </c>
@@ -21002,7 +20539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>45536</v>
       </c>
@@ -21058,7 +20595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>45566</v>
       </c>
@@ -21114,7 +20651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>45597</v>
       </c>
@@ -22171,14 +21708,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15716FD-0F91-490F-AD82-2D47BBFCBF61}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J93" sqref="J93"/>
       <selection pane="topRight" activeCell="J93" sqref="J93"/>
       <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50:T109"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22190,20 +21727,19 @@
     <col min="5" max="7" width="11.875" style="15" customWidth="1"/>
     <col min="8" max="15" width="18.625" style="15" customWidth="1"/>
     <col min="16" max="18" width="11.875" style="15" customWidth="1"/>
-    <col min="19" max="20" width="10.75" style="15" customWidth="1"/>
-    <col min="21" max="21" width="9" style="2"/>
-    <col min="22" max="23" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="9" style="2"/>
+    <col min="20" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>5</v>
@@ -22256,16 +21792,10 @@
       <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="3"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA1" s="3"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>42736</v>
       </c>
@@ -22320,16 +21850,10 @@
       <c r="R2" s="14">
         <v>6652</v>
       </c>
-      <c r="S2" s="14">
-        <v>50908</v>
-      </c>
-      <c r="T2" s="14">
-        <v>157</v>
-      </c>
-      <c r="AC2" s="3"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA2" s="3"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>42767</v>
       </c>
@@ -22384,16 +21908,10 @@
       <c r="R3" s="14">
         <v>6567</v>
       </c>
-      <c r="S3" s="14">
-        <v>35199</v>
-      </c>
-      <c r="T3" s="14">
-        <v>99</v>
-      </c>
-      <c r="AC3" s="3"/>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA3" s="3"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>42795</v>
       </c>
@@ -22448,16 +21966,10 @@
       <c r="R4" s="14">
         <v>5503</v>
       </c>
-      <c r="S4" s="14">
-        <v>42150</v>
-      </c>
-      <c r="T4" s="14">
-        <v>157</v>
-      </c>
-      <c r="AC4" s="3"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA4" s="3"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>42826</v>
       </c>
@@ -22512,16 +22024,10 @@
       <c r="R5" s="14">
         <v>1888</v>
       </c>
-      <c r="S5" s="14">
-        <v>31776</v>
-      </c>
-      <c r="T5" s="14">
-        <v>261</v>
-      </c>
-      <c r="AC5" s="3"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA5" s="3"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>42856</v>
       </c>
@@ -22576,16 +22082,10 @@
       <c r="R6" s="14">
         <v>1063</v>
       </c>
-      <c r="S6" s="14">
-        <v>29236</v>
-      </c>
-      <c r="T6" s="14">
-        <v>222</v>
-      </c>
-      <c r="AC6" s="3"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>42887</v>
       </c>
@@ -22640,16 +22140,10 @@
       <c r="R7" s="14">
         <v>761</v>
       </c>
-      <c r="S7" s="14">
-        <v>25439</v>
-      </c>
-      <c r="T7" s="14">
-        <v>117</v>
-      </c>
-      <c r="AC7" s="3"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA7" s="3"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>42917</v>
       </c>
@@ -22704,16 +22198,10 @@
       <c r="R8" s="14">
         <v>695</v>
       </c>
-      <c r="S8" s="14">
-        <v>25538</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3"/>
-      <c r="AE8" s="2"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA8" s="3"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>42948</v>
       </c>
@@ -22768,16 +22256,10 @@
       <c r="R9" s="14">
         <v>993</v>
       </c>
-      <c r="S9" s="14">
-        <v>25092</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3"/>
-      <c r="AE9" s="2"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA9" s="3"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>42979</v>
       </c>
@@ -22832,16 +22314,10 @@
       <c r="R10" s="14">
         <v>959</v>
       </c>
-      <c r="S10" s="14">
-        <v>23537</v>
-      </c>
-      <c r="T10" s="14">
-        <v>239</v>
-      </c>
-      <c r="AC10" s="3"/>
-      <c r="AE10" s="2"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA10" s="3"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>43009</v>
       </c>
@@ -22896,16 +22372,10 @@
       <c r="R11" s="14">
         <v>1436</v>
       </c>
-      <c r="S11" s="14">
-        <v>26485</v>
-      </c>
-      <c r="T11" s="14">
-        <v>925</v>
-      </c>
-      <c r="AC11" s="3"/>
-      <c r="AE11" s="2"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA11" s="3"/>
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43040</v>
       </c>
@@ -22960,16 +22430,10 @@
       <c r="R12" s="14">
         <v>5017</v>
       </c>
-      <c r="S12" s="14">
-        <v>32590</v>
-      </c>
-      <c r="T12" s="14">
-        <v>275</v>
-      </c>
-      <c r="AC12" s="3"/>
-      <c r="AE12" s="2"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA12" s="3"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>43070</v>
       </c>
@@ -23024,16 +22488,10 @@
       <c r="R13" s="14">
         <v>9244</v>
       </c>
-      <c r="S13" s="14">
-        <v>41553</v>
-      </c>
-      <c r="T13" s="14">
-        <v>241</v>
-      </c>
-      <c r="AC13" s="3"/>
-      <c r="AE13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA13" s="3"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43101</v>
       </c>
@@ -23088,16 +22546,10 @@
       <c r="R14" s="14">
         <v>11611</v>
       </c>
-      <c r="S14" s="14">
-        <v>41380</v>
-      </c>
-      <c r="T14" s="14">
-        <v>148</v>
-      </c>
-      <c r="AC14" s="3"/>
-      <c r="AE14" s="2"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA14" s="3"/>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>43132</v>
       </c>
@@ -23152,16 +22604,10 @@
       <c r="R15" s="14">
         <v>9290</v>
       </c>
-      <c r="S15" s="14">
-        <v>37061</v>
-      </c>
-      <c r="T15" s="14">
-        <v>91</v>
-      </c>
-      <c r="AC15" s="3"/>
-      <c r="AE15" s="2"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA15" s="3"/>
+      <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43160</v>
       </c>
@@ -23216,16 +22662,10 @@
       <c r="R16" s="14">
         <v>6354</v>
       </c>
-      <c r="S16" s="14">
-        <v>33987</v>
-      </c>
-      <c r="T16" s="14">
-        <v>237</v>
-      </c>
-      <c r="AC16" s="3"/>
-      <c r="AE16" s="2"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA16" s="3"/>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43191</v>
       </c>
@@ -23280,16 +22720,10 @@
       <c r="R17" s="14">
         <v>2954</v>
       </c>
-      <c r="S17" s="14">
-        <v>31465</v>
-      </c>
-      <c r="T17" s="14">
-        <v>184</v>
-      </c>
-      <c r="AC17" s="3"/>
-      <c r="AE17" s="2"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA17" s="3"/>
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43221</v>
       </c>
@@ -23344,16 +22778,10 @@
       <c r="R18" s="14">
         <v>1727</v>
       </c>
-      <c r="S18" s="14">
-        <v>31213</v>
-      </c>
-      <c r="T18" s="14">
-        <v>239</v>
-      </c>
-      <c r="AC18" s="3"/>
-      <c r="AE18" s="2"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA18" s="3"/>
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43252</v>
       </c>
@@ -23408,16 +22836,10 @@
       <c r="R19" s="14">
         <v>1301</v>
       </c>
-      <c r="S19" s="14">
-        <v>25034</v>
-      </c>
-      <c r="T19" s="14">
-        <v>213</v>
-      </c>
-      <c r="AC19" s="3"/>
-      <c r="AE19" s="2"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA19" s="3"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43282</v>
       </c>
@@ -23472,16 +22894,10 @@
       <c r="R20" s="14">
         <v>1067</v>
       </c>
-      <c r="S20" s="14">
-        <v>25060</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3"/>
-      <c r="AE20" s="2"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA20" s="3"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>43313</v>
       </c>
@@ -23536,16 +22952,10 @@
       <c r="R21" s="14">
         <v>1108</v>
       </c>
-      <c r="S21" s="14">
-        <v>22419</v>
-      </c>
-      <c r="T21" s="14">
-        <v>84</v>
-      </c>
-      <c r="AC21" s="3"/>
-      <c r="AE21" s="2"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA21" s="3"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43344</v>
       </c>
@@ -23600,16 +23010,10 @@
       <c r="R22" s="14">
         <v>1330</v>
       </c>
-      <c r="S22" s="14">
-        <v>25390</v>
-      </c>
-      <c r="T22" s="14">
-        <v>323</v>
-      </c>
-      <c r="AC22" s="3"/>
-      <c r="AE22" s="2"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA22" s="3"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43374</v>
       </c>
@@ -23664,16 +23068,10 @@
       <c r="R23" s="14">
         <v>2568</v>
       </c>
-      <c r="S23" s="14">
-        <v>29068</v>
-      </c>
-      <c r="T23" s="14">
-        <v>84</v>
-      </c>
-      <c r="AC23" s="3"/>
-      <c r="AE23" s="2"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA23" s="3"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43405</v>
       </c>
@@ -23728,16 +23126,10 @@
       <c r="R24" s="14">
         <v>7050</v>
       </c>
-      <c r="S24" s="14">
-        <v>33184</v>
-      </c>
-      <c r="T24" s="14">
-        <v>115</v>
-      </c>
-      <c r="AC24" s="3"/>
-      <c r="AE24" s="2"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA24" s="3"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43435</v>
       </c>
@@ -23792,16 +23184,10 @@
       <c r="R25" s="14">
         <v>11569</v>
       </c>
-      <c r="S25" s="14">
-        <v>38443</v>
-      </c>
-      <c r="T25" s="14">
-        <v>258</v>
-      </c>
-      <c r="AC25" s="3"/>
-      <c r="AE25" s="2"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA25" s="3"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43466</v>
       </c>
@@ -23856,16 +23242,10 @@
       <c r="R26" s="14">
         <v>12673</v>
       </c>
-      <c r="S26" s="14">
-        <v>38449</v>
-      </c>
-      <c r="T26" s="14">
-        <v>475</v>
-      </c>
-      <c r="AC26" s="3"/>
-      <c r="AE26" s="2"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA26" s="3"/>
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>43497</v>
       </c>
@@ -23920,16 +23300,10 @@
       <c r="R27" s="14">
         <v>10068</v>
       </c>
-      <c r="S27" s="14">
-        <v>33923</v>
-      </c>
-      <c r="T27" s="14">
-        <v>243</v>
-      </c>
-      <c r="AC27" s="3"/>
-      <c r="AE27" s="2"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA27" s="3"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43525</v>
       </c>
@@ -23984,16 +23358,10 @@
       <c r="R28" s="14">
         <v>7209</v>
       </c>
-      <c r="S28" s="14">
-        <v>33385</v>
-      </c>
-      <c r="T28" s="14">
-        <v>27</v>
-      </c>
-      <c r="AC28" s="3"/>
-      <c r="AE28" s="2"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA28" s="3"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>43556</v>
       </c>
@@ -24048,16 +23416,10 @@
       <c r="R29" s="14">
         <v>5065</v>
       </c>
-      <c r="S29" s="14">
-        <v>34281</v>
-      </c>
-      <c r="T29" s="14">
-        <v>194</v>
-      </c>
-      <c r="AC29" s="3"/>
-      <c r="AE29" s="2"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA29" s="3"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43586</v>
       </c>
@@ -24112,16 +23474,10 @@
       <c r="R30" s="14">
         <v>1946</v>
       </c>
-      <c r="S30" s="14">
-        <v>29999</v>
-      </c>
-      <c r="T30" s="14">
-        <v>675</v>
-      </c>
-      <c r="AC30" s="3"/>
-      <c r="AE30" s="2"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA30" s="3"/>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43617</v>
       </c>
@@ -24176,16 +23532,10 @@
       <c r="R31" s="14">
         <v>1624</v>
       </c>
-      <c r="S31" s="14">
-        <v>24749</v>
-      </c>
-      <c r="T31" s="14">
-        <v>283</v>
-      </c>
-      <c r="AC31" s="3"/>
-      <c r="AE31" s="2"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA31" s="3"/>
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43647</v>
       </c>
@@ -24240,16 +23590,10 @@
       <c r="R32" s="14">
         <v>1940</v>
       </c>
-      <c r="S32" s="14">
-        <v>25227</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3"/>
-      <c r="AE32" s="2"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA32" s="3"/>
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>43678</v>
       </c>
@@ -24304,16 +23648,10 @@
       <c r="R33" s="14">
         <v>1093</v>
       </c>
-      <c r="S33" s="14">
-        <v>25946</v>
-      </c>
-      <c r="T33" s="14">
-        <v>1630</v>
-      </c>
-      <c r="AC33" s="3"/>
-      <c r="AE33" s="2"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA33" s="3"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43709</v>
       </c>
@@ -24368,16 +23706,10 @@
       <c r="R34" s="14">
         <v>1383</v>
       </c>
-      <c r="S34" s="14">
-        <v>25261</v>
-      </c>
-      <c r="T34" s="14">
-        <v>361</v>
-      </c>
-      <c r="AC34" s="3"/>
-      <c r="AE34" s="2"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA34" s="3"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>43739</v>
       </c>
@@ -24432,16 +23764,10 @@
       <c r="R35" s="14">
         <v>2109</v>
       </c>
-      <c r="S35" s="14">
-        <v>27649</v>
-      </c>
-      <c r="T35" s="14">
-        <v>574</v>
-      </c>
-      <c r="AC35" s="3"/>
-      <c r="AE35" s="2"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA35" s="3"/>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43770</v>
       </c>
@@ -24496,16 +23822,10 @@
       <c r="R36" s="14">
         <v>5601</v>
       </c>
-      <c r="S36" s="14">
-        <v>30800</v>
-      </c>
-      <c r="T36" s="14">
-        <v>1076</v>
-      </c>
-      <c r="AC36" s="3"/>
-      <c r="AE36" s="2"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA36" s="3"/>
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>43800</v>
       </c>
@@ -24560,16 +23880,10 @@
       <c r="R37" s="14">
         <v>10653</v>
       </c>
-      <c r="S37" s="14">
-        <v>34233</v>
-      </c>
-      <c r="T37" s="14">
-        <v>514</v>
-      </c>
-      <c r="AC37" s="3"/>
-      <c r="AE37" s="2"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA37" s="3"/>
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43831</v>
       </c>
@@ -24624,16 +23938,10 @@
       <c r="R38" s="14">
         <v>12536</v>
       </c>
-      <c r="S38" s="14">
-        <v>37529</v>
-      </c>
-      <c r="T38" s="14">
-        <v>377</v>
-      </c>
-      <c r="AC38" s="3"/>
-      <c r="AE38" s="2"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA38" s="3"/>
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>43862</v>
       </c>
@@ -24688,16 +23996,10 @@
       <c r="R39" s="14">
         <v>9988</v>
       </c>
-      <c r="S39" s="14">
-        <v>36135</v>
-      </c>
-      <c r="T39" s="14">
-        <v>97</v>
-      </c>
-      <c r="AC39" s="3"/>
-      <c r="AE39" s="2"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA39" s="3"/>
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43891</v>
       </c>
@@ -24752,16 +24054,10 @@
       <c r="R40" s="14">
         <v>8708</v>
       </c>
-      <c r="S40" s="14">
-        <v>34885</v>
-      </c>
-      <c r="T40" s="14">
-        <v>125</v>
-      </c>
-      <c r="AC40" s="3"/>
-      <c r="AE40" s="2"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA40" s="3"/>
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>43922</v>
       </c>
@@ -24816,16 +24112,10 @@
       <c r="R41" s="14">
         <v>6189</v>
       </c>
-      <c r="S41" s="14">
-        <v>33750</v>
-      </c>
-      <c r="T41" s="14">
-        <v>34</v>
-      </c>
-      <c r="AC41" s="3"/>
-      <c r="AE41" s="2"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA41" s="3"/>
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43952</v>
       </c>
@@ -24880,16 +24170,10 @@
       <c r="R42" s="14">
         <v>2255</v>
       </c>
-      <c r="S42" s="14">
-        <v>29006</v>
-      </c>
-      <c r="T42" s="14">
-        <v>390</v>
-      </c>
-      <c r="AC42" s="3"/>
-      <c r="AE42" s="2"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA42" s="3"/>
+      <c r="AC42" s="2"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>43983</v>
       </c>
@@ -24944,16 +24228,10 @@
       <c r="R43" s="14">
         <v>1619</v>
       </c>
-      <c r="S43" s="14">
-        <v>25334</v>
-      </c>
-      <c r="T43" s="14">
-        <v>583</v>
-      </c>
-      <c r="AC43" s="3"/>
-      <c r="AE43" s="2"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA43" s="3"/>
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>44013</v>
       </c>
@@ -25008,16 +24286,10 @@
       <c r="R44" s="14">
         <v>1539</v>
       </c>
-      <c r="S44" s="14">
-        <v>24884</v>
-      </c>
-      <c r="T44" s="14">
-        <v>351</v>
-      </c>
-      <c r="AC44" s="3"/>
-      <c r="AE44" s="2"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA44" s="3"/>
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44044</v>
       </c>
@@ -25072,16 +24344,10 @@
       <c r="R45" s="14">
         <v>1334</v>
       </c>
-      <c r="S45" s="14">
-        <v>29402</v>
-      </c>
-      <c r="T45" s="14">
-        <v>189</v>
-      </c>
-      <c r="AC45" s="3"/>
-      <c r="AE45" s="2"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA45" s="3"/>
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>44075</v>
       </c>
@@ -25136,16 +24402,10 @@
       <c r="R46" s="14">
         <v>1522</v>
       </c>
-      <c r="S46" s="14">
-        <v>29592</v>
-      </c>
-      <c r="T46" s="14">
-        <v>609</v>
-      </c>
-      <c r="AC46" s="3"/>
-      <c r="AE46" s="2"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA46" s="3"/>
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44105</v>
       </c>
@@ -25200,16 +24460,10 @@
       <c r="R47" s="14">
         <v>2955</v>
       </c>
-      <c r="S47" s="14">
-        <v>29952</v>
-      </c>
-      <c r="T47" s="14">
-        <v>344</v>
-      </c>
-      <c r="AC47" s="3"/>
-      <c r="AE47" s="2"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA47" s="3"/>
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>44136</v>
       </c>
@@ -25264,16 +24518,10 @@
       <c r="R48" s="14">
         <v>5889</v>
       </c>
-      <c r="S48" s="14">
-        <v>31422</v>
-      </c>
-      <c r="T48" s="14">
-        <v>84</v>
-      </c>
-      <c r="AC48" s="3"/>
-      <c r="AE48" s="2"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA48" s="3"/>
+      <c r="AC48" s="2"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>44166</v>
       </c>
@@ -25328,16 +24576,10 @@
       <c r="R49" s="14">
         <v>12174</v>
       </c>
-      <c r="S49" s="14">
-        <v>33696</v>
-      </c>
-      <c r="T49" s="14">
-        <v>473</v>
-      </c>
-      <c r="AC49" s="3"/>
-      <c r="AE49" s="2"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA49" s="3"/>
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>44197</v>
       </c>
@@ -25392,16 +24634,10 @@
       <c r="R50" s="14">
         <v>12985</v>
       </c>
-      <c r="S50" s="14">
-        <v>36067</v>
-      </c>
-      <c r="T50" s="14">
-        <v>638</v>
-      </c>
-      <c r="AC50" s="3"/>
-      <c r="AE50" s="2"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA50" s="3"/>
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>44228</v>
       </c>
@@ -25456,16 +24692,10 @@
       <c r="R51" s="14">
         <v>10716</v>
       </c>
-      <c r="S51" s="14">
-        <v>31658</v>
-      </c>
-      <c r="T51" s="14">
-        <v>408</v>
-      </c>
-      <c r="AC51" s="3"/>
-      <c r="AE51" s="2"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA51" s="3"/>
+      <c r="AC51" s="2"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>44256</v>
       </c>
@@ -25520,16 +24750,10 @@
       <c r="R52" s="14">
         <v>8790</v>
       </c>
-      <c r="S52" s="14">
-        <v>32110</v>
-      </c>
-      <c r="T52" s="14">
-        <v>344</v>
-      </c>
-      <c r="AC52" s="3"/>
-      <c r="AE52" s="2"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA52" s="3"/>
+      <c r="AC52" s="2"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>44287</v>
       </c>
@@ -25584,16 +24808,10 @@
       <c r="R53" s="14">
         <v>2341</v>
       </c>
-      <c r="S53" s="14">
-        <v>30428</v>
-      </c>
-      <c r="T53" s="14">
-        <v>355</v>
-      </c>
-      <c r="AC53" s="3"/>
-      <c r="AE53" s="2"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA53" s="3"/>
+      <c r="AC53" s="2"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>44317</v>
       </c>
@@ -25648,16 +24866,10 @@
       <c r="R54" s="14">
         <v>1731</v>
       </c>
-      <c r="S54" s="14">
-        <v>25031</v>
-      </c>
-      <c r="T54" s="14">
-        <v>1370</v>
-      </c>
-      <c r="AC54" s="3"/>
-      <c r="AE54" s="2"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA54" s="3"/>
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>44348</v>
       </c>
@@ -25712,16 +24924,10 @@
       <c r="R55" s="14">
         <v>1624</v>
       </c>
-      <c r="S55" s="14">
-        <v>21080</v>
-      </c>
-      <c r="T55" s="14">
-        <v>1382</v>
-      </c>
-      <c r="AC55" s="3"/>
-      <c r="AE55" s="2"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA55" s="3"/>
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>44378</v>
       </c>
@@ -25776,16 +24982,10 @@
       <c r="R56" s="14">
         <v>1282</v>
       </c>
-      <c r="S56" s="14">
-        <v>22159</v>
-      </c>
-      <c r="T56" s="14">
-        <v>786</v>
-      </c>
-      <c r="AC56" s="3"/>
-      <c r="AE56" s="2"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA56" s="3"/>
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>44409</v>
       </c>
@@ -25840,16 +25040,10 @@
       <c r="R57" s="14">
         <v>1384</v>
       </c>
-      <c r="S57" s="14">
-        <v>24109</v>
-      </c>
-      <c r="T57" s="14">
-        <v>434</v>
-      </c>
-      <c r="AC57" s="3"/>
-      <c r="AE57" s="2"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA57" s="3"/>
+      <c r="AC57" s="2"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>44440</v>
       </c>
@@ -25904,16 +25098,10 @@
       <c r="R58" s="14">
         <v>1240</v>
       </c>
-      <c r="S58" s="14">
-        <v>23017</v>
-      </c>
-      <c r="T58" s="14">
-        <v>82</v>
-      </c>
-      <c r="AC58" s="3"/>
-      <c r="AE58" s="2"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA58" s="3"/>
+      <c r="AC58" s="2"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>44470</v>
       </c>
@@ -25968,16 +25156,10 @@
       <c r="R59" s="14">
         <v>2690</v>
       </c>
-      <c r="S59" s="14">
-        <v>24611</v>
-      </c>
-      <c r="T59" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3"/>
-      <c r="AE59" s="2"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA59" s="3"/>
+      <c r="AC59" s="2"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>44501</v>
       </c>
@@ -26032,16 +25214,10 @@
       <c r="R60" s="14">
         <v>6914</v>
       </c>
-      <c r="S60" s="14">
-        <v>24234</v>
-      </c>
-      <c r="T60" s="14">
-        <v>778</v>
-      </c>
-      <c r="AC60" s="3"/>
-      <c r="AE60" s="2"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA60" s="3"/>
+      <c r="AC60" s="2"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>44531</v>
       </c>
@@ -26096,16 +25272,10 @@
       <c r="R61" s="14">
         <v>12094</v>
       </c>
-      <c r="S61" s="14">
-        <v>24617</v>
-      </c>
-      <c r="T61" s="14">
-        <v>233</v>
-      </c>
-      <c r="AC61" s="3"/>
-      <c r="AE61" s="2"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA61" s="3"/>
+      <c r="AC61" s="2"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>44562</v>
       </c>
@@ -26160,16 +25330,10 @@
       <c r="R62" s="14">
         <v>11455</v>
       </c>
-      <c r="S62" s="14">
-        <v>27071</v>
-      </c>
-      <c r="T62" s="14">
-        <v>1246</v>
-      </c>
-      <c r="AC62" s="3"/>
-      <c r="AE62" s="2"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA62" s="3"/>
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>44593</v>
       </c>
@@ -26224,16 +25388,10 @@
       <c r="R63" s="14">
         <v>12783</v>
       </c>
-      <c r="S63" s="14">
-        <v>25471</v>
-      </c>
-      <c r="T63" s="14">
-        <v>556</v>
-      </c>
-      <c r="AC63" s="3"/>
-      <c r="AE63" s="2"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA63" s="3"/>
+      <c r="AC63" s="2"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>44621</v>
       </c>
@@ -26288,16 +25446,10 @@
       <c r="R64" s="14">
         <v>7901</v>
       </c>
-      <c r="S64" s="14">
-        <v>20413</v>
-      </c>
-      <c r="T64" s="14">
-        <v>158</v>
-      </c>
-      <c r="AC64" s="3"/>
-      <c r="AE64" s="2"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA64" s="3"/>
+      <c r="AC64" s="2"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>44652</v>
       </c>
@@ -26352,16 +25504,10 @@
       <c r="R65" s="14">
         <v>2920</v>
       </c>
-      <c r="S65" s="14">
-        <v>20897</v>
-      </c>
-      <c r="T65" s="14">
-        <v>202</v>
-      </c>
-      <c r="AC65" s="3"/>
-      <c r="AE65" s="2"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA65" s="3"/>
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>44682</v>
       </c>
@@ -26416,16 +25562,10 @@
       <c r="R66" s="14">
         <v>1818</v>
       </c>
-      <c r="S66" s="14">
-        <v>18501</v>
-      </c>
-      <c r="T66" s="14">
-        <v>456</v>
-      </c>
-      <c r="AC66" s="3"/>
-      <c r="AE66" s="2"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA66" s="3"/>
+      <c r="AC66" s="2"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>44713</v>
       </c>
@@ -26480,16 +25620,10 @@
       <c r="R67" s="14">
         <v>1366</v>
       </c>
-      <c r="S67" s="14">
-        <v>16114</v>
-      </c>
-      <c r="T67" s="14">
-        <v>445</v>
-      </c>
-      <c r="AC67" s="3"/>
-      <c r="AE67" s="2"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA67" s="3"/>
+      <c r="AC67" s="2"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>44743</v>
       </c>
@@ -26544,16 +25678,10 @@
       <c r="R68" s="14">
         <v>1175</v>
       </c>
-      <c r="S68" s="14">
-        <v>20352</v>
-      </c>
-      <c r="T68" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="3"/>
-      <c r="AE68" s="2"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA68" s="3"/>
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>44774</v>
       </c>
@@ -26608,16 +25736,10 @@
       <c r="R69" s="14">
         <v>1490</v>
       </c>
-      <c r="S69" s="14">
-        <v>19783</v>
-      </c>
-      <c r="T69" s="14">
-        <v>692</v>
-      </c>
-      <c r="AC69" s="3"/>
-      <c r="AE69" s="2"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA69" s="3"/>
+      <c r="AC69" s="2"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>44805</v>
       </c>
@@ -26672,16 +25794,10 @@
       <c r="R70" s="14">
         <v>1341</v>
       </c>
-      <c r="S70" s="14">
-        <v>13253</v>
-      </c>
-      <c r="T70" s="14">
-        <v>257</v>
-      </c>
-      <c r="AC70" s="3"/>
-      <c r="AE70" s="2"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA70" s="3"/>
+      <c r="AC70" s="2"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>44835</v>
       </c>
@@ -26736,16 +25852,10 @@
       <c r="R71" s="14">
         <v>2375</v>
       </c>
-      <c r="S71" s="14">
-        <v>12234</v>
-      </c>
-      <c r="T71" s="14">
-        <v>118</v>
-      </c>
-      <c r="AC71" s="3"/>
-      <c r="AE71" s="2"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA71" s="3"/>
+      <c r="AC71" s="2"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>44866</v>
       </c>
@@ -26800,16 +25910,10 @@
       <c r="R72" s="14">
         <v>6230</v>
       </c>
-      <c r="S72" s="14">
-        <v>7515</v>
-      </c>
-      <c r="T72" s="14">
-        <v>198</v>
-      </c>
-      <c r="AC72" s="3"/>
-      <c r="AE72" s="2"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA72" s="3"/>
+      <c r="AC72" s="2"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>44896</v>
       </c>
@@ -26864,16 +25968,10 @@
       <c r="R73" s="14">
         <v>11869</v>
       </c>
-      <c r="S73" s="14">
-        <v>11850</v>
-      </c>
-      <c r="T73" s="14">
-        <v>401</v>
-      </c>
-      <c r="AC73" s="3"/>
-      <c r="AE73" s="2"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA73" s="3"/>
+      <c r="AC73" s="2"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -26928,12 +26026,10 @@
       <c r="R74" s="14">
         <v>12469</v>
       </c>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="AC74" s="3"/>
-      <c r="AE74" s="2"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA74" s="3"/>
+      <c r="AC74" s="2"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>44958</v>
       </c>
@@ -26988,12 +26084,10 @@
       <c r="R75" s="14">
         <v>11247</v>
       </c>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="AC75" s="3"/>
-      <c r="AE75" s="2"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA75" s="3"/>
+      <c r="AC75" s="2"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>44986</v>
       </c>
@@ -27048,12 +26142,10 @@
       <c r="R76" s="14">
         <v>5220</v>
       </c>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="AC76" s="3"/>
-      <c r="AE76" s="2"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA76" s="3"/>
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>45017</v>
       </c>
@@ -27108,12 +26200,10 @@
       <c r="R77" s="14">
         <v>2042</v>
       </c>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="AC77" s="3"/>
-      <c r="AE77" s="2"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA77" s="3"/>
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>45047</v>
       </c>
@@ -27168,12 +26258,10 @@
       <c r="R78" s="14">
         <v>1578</v>
       </c>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="AC78" s="3"/>
-      <c r="AE78" s="2"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA78" s="3"/>
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>45078</v>
       </c>
@@ -27228,12 +26316,10 @@
       <c r="R79" s="14">
         <v>1886</v>
       </c>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="AC79" s="3"/>
-      <c r="AE79" s="2"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA79" s="3"/>
+      <c r="AC79" s="2"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>45108</v>
       </c>
@@ -27288,12 +26374,10 @@
       <c r="R80" s="14">
         <v>1925</v>
       </c>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="AC80" s="3"/>
-      <c r="AE80" s="2"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA80" s="3"/>
+      <c r="AC80" s="2"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>45139</v>
       </c>
@@ -27348,12 +26432,10 @@
       <c r="R81" s="14">
         <v>1996</v>
       </c>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="AC81" s="3"/>
-      <c r="AE81" s="2"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA81" s="3"/>
+      <c r="AC81" s="2"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>45170</v>
       </c>
@@ -27408,12 +26490,10 @@
       <c r="R82" s="14">
         <v>1118</v>
       </c>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="AC82" s="3"/>
-      <c r="AE82" s="2"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA82" s="3"/>
+      <c r="AC82" s="2"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>45200</v>
       </c>
@@ -27468,12 +26548,10 @@
       <c r="R83" s="14">
         <v>2655</v>
       </c>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="AC83" s="3"/>
-      <c r="AE83" s="2"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA83" s="3"/>
+      <c r="AC83" s="2"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>45231</v>
       </c>
@@ -27528,12 +26606,10 @@
       <c r="R84" s="14">
         <v>7171</v>
       </c>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="AC84" s="3"/>
-      <c r="AE84" s="2"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA84" s="3"/>
+      <c r="AC84" s="2"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>45261</v>
       </c>
@@ -27588,12 +26664,10 @@
       <c r="R85" s="14">
         <v>10907</v>
       </c>
-      <c r="S85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="AC85" s="3"/>
-      <c r="AE85" s="2"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA85" s="3"/>
+      <c r="AC85" s="2"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>45292</v>
       </c>
@@ -27648,10 +26722,10 @@
       <c r="R86" s="15">
         <v>12322</v>
       </c>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="2"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="2"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>45323</v>
       </c>
@@ -27706,10 +26780,10 @@
       <c r="R87" s="15">
         <v>9752</v>
       </c>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="2"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="2"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>45352</v>
       </c>
@@ -27764,10 +26838,10 @@
       <c r="R88" s="15">
         <v>8646</v>
       </c>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="2"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="2"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>45383</v>
       </c>
@@ -27822,10 +26896,10 @@
       <c r="R89" s="15">
         <v>3493</v>
       </c>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="2"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>45413</v>
       </c>
@@ -27880,10 +26954,10 @@
       <c r="R90" s="15">
         <v>4058</v>
       </c>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="2"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="2"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>45444</v>
       </c>
@@ -27938,10 +27012,10 @@
       <c r="R91" s="15">
         <v>2073</v>
       </c>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="2"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="2"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>45474</v>
       </c>
@@ -27997,7 +27071,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>45505</v>
       </c>
@@ -28053,7 +27127,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>45536</v>
       </c>
@@ -28109,7 +27183,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>45566</v>
       </c>
@@ -28165,7 +27239,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>45597</v>
       </c>
